--- a/data/trans_orig/P70C2_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C2_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>98520</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>84880</v>
+        <v>84583</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111908</v>
+        <v>111951</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.61140742406938</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5267597030379438</v>
+        <v>0.5249189786256767</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6944967513262331</v>
+        <v>0.6947638196186318</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -762,19 +762,19 @@
         <v>48193</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40202</v>
+        <v>39834</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55673</v>
+        <v>55522</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5693245723695469</v>
+        <v>0.5693245723695468</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.47492447509405</v>
+        <v>0.4705694736790269</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6576805793869204</v>
+        <v>0.6559028239667659</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>142</v>
@@ -783,19 +783,19 @@
         <v>146713</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>131057</v>
+        <v>131308</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>162930</v>
+        <v>161764</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.596913819923556</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5332153897662896</v>
+        <v>0.5342378843741367</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6628930495482469</v>
+        <v>0.6581494716767192</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>35697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>26040</v>
+        <v>25733</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47157</v>
+        <v>47674</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2215306563230676</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1616047796666013</v>
+        <v>0.1596943803600544</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2926535131170162</v>
+        <v>0.2958592039750242</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -833,19 +833,19 @@
         <v>16328</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11259</v>
+        <v>10895</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23638</v>
+        <v>23822</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1928897438121228</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1330028098426841</v>
+        <v>0.128708193429194</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2792478382995122</v>
+        <v>0.2814181843910741</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>56</v>
@@ -854,19 +854,19 @@
         <v>52025</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>40281</v>
+        <v>39816</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65308</v>
+        <v>65803</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2116665422827527</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1638882960462034</v>
+        <v>0.1619959397657068</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2657122560279396</v>
+        <v>0.2677262746066374</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>7776</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3181</v>
+        <v>3104</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15702</v>
+        <v>15760</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04825761761878637</v>
+        <v>0.04825761761878634</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01974158784239516</v>
+        <v>0.01926223388478859</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09744351118781694</v>
+        <v>0.09780490199565613</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -904,19 +904,19 @@
         <v>5336</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2604</v>
+        <v>2754</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10116</v>
+        <v>9728</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.06304041999082276</v>
+        <v>0.06304041999082273</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0307603113169196</v>
+        <v>0.03253814256497504</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1195068169153527</v>
+        <v>0.114925231435987</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -925,19 +925,19 @@
         <v>13112</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7804</v>
+        <v>7847</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22568</v>
+        <v>21664</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.05334890960808599</v>
+        <v>0.05334890960808598</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03175192662753996</v>
+        <v>0.03192623677194747</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09181868618114648</v>
+        <v>0.08814063113731316</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>12971</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7129</v>
+        <v>6582</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23635</v>
+        <v>23417</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08049698930351259</v>
+        <v>0.08049698930351258</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04424032033288203</v>
+        <v>0.04084855925281743</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1466764576247154</v>
+        <v>0.1453216763061585</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -975,19 +975,19 @@
         <v>7508</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4180</v>
+        <v>3830</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13313</v>
+        <v>13299</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.08869622080272906</v>
+        <v>0.08869622080272904</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04937948827693551</v>
+        <v>0.04523979446265135</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1572673487502591</v>
+        <v>0.157107994089238</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -996,19 +996,19 @@
         <v>20479</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13835</v>
+        <v>13231</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31605</v>
+        <v>30617</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08332085724139016</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05628702059302196</v>
+        <v>0.05383306571479388</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1285894082981479</v>
+        <v>0.1245686836364244</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>3534</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>912</v>
+        <v>889</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8987</v>
+        <v>8966</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0219319617340132</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005660605950277962</v>
+        <v>0.005516341584306441</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05576992478614192</v>
+        <v>0.05564225596748319</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -1046,19 +1046,19 @@
         <v>5147</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2300</v>
+        <v>2204</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10184</v>
+        <v>10389</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.06080693887791066</v>
+        <v>0.06080693887791064</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02716629418508986</v>
+        <v>0.02603128752894633</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1203057833454762</v>
+        <v>0.1227238058754633</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>8681</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4579</v>
+        <v>4884</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15015</v>
+        <v>14780</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03532075329976734</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01862910760752211</v>
+        <v>0.01987012337563303</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06109053781945945</v>
+        <v>0.06013161699753389</v>
       </c>
     </row>
     <row r="9">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10328</v>
+        <v>9698</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01637535095124026</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06409446976149916</v>
+        <v>0.06018501983877976</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -1117,19 +1117,19 @@
         <v>2137</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5894</v>
+        <v>6058</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.0252421041468678</v>
+        <v>0.02524210414686779</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.007894188586790156</v>
+        <v>0.007758036073639537</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06962636156782263</v>
+        <v>0.07156407902478522</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>5</v>
@@ -1138,19 +1138,19 @@
         <v>4775</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1392</v>
+        <v>1581</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10856</v>
+        <v>10642</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01942911764444788</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.005661551085386957</v>
+        <v>0.006431934589157122</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.04417046052655747</v>
+        <v>0.04329888009104564</v>
       </c>
     </row>
     <row r="10">
@@ -1242,19 +1242,19 @@
         <v>584147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>543949</v>
+        <v>542087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>621902</v>
+        <v>626388</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4637274906096158</v>
+        <v>0.4637274906096157</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4318158670059006</v>
+        <v>0.4303378652015927</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4936993954332899</v>
+        <v>0.497260306189677</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>567</v>
@@ -1263,19 +1263,19 @@
         <v>438766</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>412183</v>
+        <v>409927</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>466219</v>
+        <v>467242</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4711152388117625</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4425718758650231</v>
+        <v>0.4401502899827877</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5005919709954582</v>
+        <v>0.5016907485649796</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1053</v>
@@ -1284,19 +1284,19 @@
         <v>1022913</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>979454</v>
+        <v>974737</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1070040</v>
+        <v>1069725</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.4668678049163458</v>
+        <v>0.4668678049163457</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4470322695217784</v>
+        <v>0.4448797633056343</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4883769232102382</v>
+        <v>0.4882330013931506</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>296558</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>264703</v>
+        <v>262135</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>330103</v>
+        <v>330191</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2354233281266223</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.210135125933596</v>
+        <v>0.2080965243496171</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2620535457727712</v>
+        <v>0.2621234836248593</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>317</v>
@@ -1334,19 +1334,19 @@
         <v>223439</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>200439</v>
+        <v>197936</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>246355</v>
+        <v>244077</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2399129892303309</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2152170136615757</v>
+        <v>0.2125295400833893</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2645184500040119</v>
+        <v>0.2620724452891724</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>586</v>
@@ -1355,19 +1355,19 @@
         <v>519997</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>483735</v>
+        <v>482109</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>558708</v>
+        <v>559335</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2373317509112874</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2207812531181813</v>
+        <v>0.220039472889561</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2550000180528392</v>
+        <v>0.255285924328524</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>127472</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104770</v>
+        <v>104117</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156358</v>
+        <v>155286</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1011940837117141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08317230596875713</v>
+        <v>0.08265336436182374</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1241251410267482</v>
+        <v>0.1232745187750919</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>117</v>
@@ -1405,19 +1405,19 @@
         <v>86388</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>73007</v>
+        <v>72313</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104530</v>
+        <v>102997</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09275729287491</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0783897423380132</v>
+        <v>0.07764462849537254</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1122363143067419</v>
+        <v>0.1105906484813957</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>223</v>
@@ -1426,19 +1426,19 @@
         <v>213860</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>187335</v>
+        <v>185674</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>246739</v>
+        <v>249245</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.09760785225894132</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08550147873972763</v>
+        <v>0.08474361479527068</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1126142745513602</v>
+        <v>0.1137577153012705</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>132297</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108779</v>
+        <v>108169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>156764</v>
+        <v>159025</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1050245475086406</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08635445073256184</v>
+        <v>0.0858706931637911</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1244476530696398</v>
+        <v>0.1262422201066278</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>121</v>
@@ -1476,19 +1476,19 @@
         <v>89112</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73885</v>
+        <v>74094</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>105303</v>
+        <v>105868</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.09568206744586456</v>
+        <v>0.09568206744586455</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07933257392898964</v>
+        <v>0.07955677037272942</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1130666300583368</v>
+        <v>0.1136735858750893</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>231</v>
@@ -1497,19 +1497,19 @@
         <v>221409</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>192524</v>
+        <v>192547</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>249789</v>
+        <v>252274</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1010533342243343</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08786988643686817</v>
+        <v>0.08788053195074323</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1140063790469704</v>
+        <v>0.115140228687679</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>72933</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>56765</v>
+        <v>56134</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>92703</v>
+        <v>91515</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.05789849934583594</v>
+        <v>0.05789849934583593</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.04506322365005085</v>
+        <v>0.0445620995401345</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.07359247016491323</v>
+        <v>0.07264960269005752</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>85</v>
@@ -1547,19 +1547,19 @@
         <v>69914</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>55800</v>
+        <v>57463</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>87097</v>
+        <v>88811</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.07506887786821563</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05991349085403101</v>
+        <v>0.06169915328192099</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.09351847197767249</v>
+        <v>0.09535927539542913</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>154</v>
@@ -1568,19 +1568,19 @@
         <v>142848</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>121746</v>
+        <v>120915</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>168830</v>
+        <v>166742</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.06519712185575442</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05556585221132065</v>
+        <v>0.05518685557314545</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07705561376775044</v>
+        <v>0.07610278137598839</v>
       </c>
     </row>
     <row r="16">
@@ -1597,19 +1597,19 @@
         <v>46271</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33128</v>
+        <v>33660</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>62660</v>
+        <v>61558</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03673205069757123</v>
+        <v>0.03673205069757121</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02629855235966716</v>
+        <v>0.02672106343630007</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04974264851629918</v>
+        <v>0.04886823415697317</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>32</v>
@@ -1618,19 +1618,19 @@
         <v>23715</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16730</v>
+        <v>16349</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32531</v>
+        <v>33757</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02546353376891643</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01796378158301525</v>
+        <v>0.01755405339861716</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03492953328925312</v>
+        <v>0.03624583584247157</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>71</v>
@@ -1639,19 +1639,19 @@
         <v>69986</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53773</v>
+        <v>54067</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>86697</v>
+        <v>88742</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03194213583333683</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02454264884391934</v>
+        <v>0.02467692840767745</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0395693654184625</v>
+        <v>0.04050263220808879</v>
       </c>
     </row>
     <row r="17">
@@ -1743,19 +1743,19 @@
         <v>275691</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>252028</v>
+        <v>251259</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>299679</v>
+        <v>298719</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.571453394459838</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5224057790074093</v>
+        <v>0.5208112340475848</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6211759315107319</v>
+        <v>0.6191867188632515</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>324</v>
@@ -1764,19 +1764,19 @@
         <v>254528</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>233786</v>
+        <v>235316</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>274182</v>
+        <v>274463</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5314764175232375</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4881647641580781</v>
+        <v>0.4913614054814221</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5725171165402377</v>
+        <v>0.573103534399566</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>562</v>
@@ -1785,19 +1785,19 @@
         <v>530219</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>499286</v>
+        <v>498996</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>562313</v>
+        <v>560115</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5515383279279875</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5193624460845746</v>
+        <v>0.5190603592554677</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5849235085393688</v>
+        <v>0.5826364398550814</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>112097</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>93643</v>
+        <v>93183</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>132019</v>
+        <v>131671</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2323550526038125</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1941042022894473</v>
+        <v>0.1931509307947393</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2736490304609936</v>
+        <v>0.2729277482832204</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>173</v>
@@ -1835,19 +1835,19 @@
         <v>109531</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>95813</v>
+        <v>95376</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>126023</v>
+        <v>126915</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2287112707726068</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2000664954283286</v>
+        <v>0.1991532675145325</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2631464081775221</v>
+        <v>0.265010311164331</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>283</v>
@@ -1856,19 +1856,19 @@
         <v>221628</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>194544</v>
+        <v>198155</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>245321</v>
+        <v>251487</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2305398538780286</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.202366899060317</v>
+        <v>0.2061229496100438</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2551847774259803</v>
+        <v>0.2615990045323647</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>28526</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18522</v>
+        <v>18538</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39744</v>
+        <v>40422</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05912856318011993</v>
+        <v>0.05912856318011992</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03839158819898587</v>
+        <v>0.03842572088765034</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08238134670473013</v>
+        <v>0.0837879599593635</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -1906,19 +1906,19 @@
         <v>33289</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24450</v>
+        <v>25037</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44228</v>
+        <v>43302</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06950993089614689</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05105390463849327</v>
+        <v>0.05227974143112881</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09235227030614349</v>
+        <v>0.09041921519496113</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>72</v>
@@ -1927,19 +1927,19 @@
         <v>61815</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>48600</v>
+        <v>47635</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>78622</v>
+        <v>76405</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06430018056089791</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05055398477940213</v>
+        <v>0.04955083093725107</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08178287338863355</v>
+        <v>0.07947669662491975</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>32777</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22418</v>
+        <v>21548</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47502</v>
+        <v>45758</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06793944409860736</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.04646853223406687</v>
+        <v>0.04466465337263536</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09846170764237261</v>
+        <v>0.09484729140804439</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>49</v>
@@ -1977,19 +1977,19 @@
         <v>38653</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>28610</v>
+        <v>28493</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>49585</v>
+        <v>50805</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08071025241771086</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.05974034209862004</v>
+        <v>0.05949495444825888</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1035382703281592</v>
+        <v>0.1060861592463451</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>76</v>
@@ -1998,19 +1998,19 @@
         <v>71429</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>55330</v>
+        <v>57660</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>88320</v>
+        <v>91111</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.07430139332112619</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.05755427188103612</v>
+        <v>0.05997816537225846</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.09187130977070225</v>
+        <v>0.09477491931975361</v>
       </c>
     </row>
     <row r="22">
@@ -2027,19 +2027,19 @@
         <v>22428</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12233</v>
+        <v>12090</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39330</v>
+        <v>39261</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04648957520136715</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02535610515625538</v>
+        <v>0.0250607101649519</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08152283216843607</v>
+        <v>0.08138082659453544</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>36</v>
@@ -2048,19 +2048,19 @@
         <v>29271</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20791</v>
+        <v>20852</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>40872</v>
+        <v>41273</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06111988112841828</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04341375676597607</v>
+        <v>0.04354100590921806</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08534391426724125</v>
+        <v>0.08618146639248842</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -2069,19 +2069,19 @@
         <v>51699</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37504</v>
+        <v>38136</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>70891</v>
+        <v>72711</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05377785806429163</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03901233285742462</v>
+        <v>0.03966915134795462</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07374118563766702</v>
+        <v>0.07563422906883691</v>
       </c>
     </row>
     <row r="23">
@@ -2098,19 +2098,19 @@
         <v>10919</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5081</v>
+        <v>5508</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20256</v>
+        <v>21491</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02263397045625511</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01053241235684994</v>
+        <v>0.01141790951400842</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04198676724309004</v>
+        <v>0.04454568232320194</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>17</v>
@@ -2119,19 +2119,19 @@
         <v>13636</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>7838</v>
+        <v>8466</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>22046</v>
+        <v>22368</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02847224726187954</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0163665911678544</v>
+        <v>0.01767817582196028</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04603465821175552</v>
+        <v>0.04670641710471819</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>26</v>
@@ -2140,19 +2140,19 @@
         <v>24555</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>16164</v>
+        <v>16325</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>35552</v>
+        <v>36712</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02554238624766834</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01681360360957447</v>
+        <v>0.01698155678154939</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03698193586418964</v>
+        <v>0.03818785165057664</v>
       </c>
     </row>
     <row r="24">
@@ -2244,19 +2244,19 @@
         <v>958358</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>905219</v>
+        <v>909865</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1006866</v>
+        <v>1004926</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5035370271055438</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4756167674392906</v>
+        <v>0.4780580936678474</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5290241489036501</v>
+        <v>0.528004450005765</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>953</v>
@@ -2265,19 +2265,19 @@
         <v>741487</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>709704</v>
+        <v>706646</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>775832</v>
+        <v>774532</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.496013902629648</v>
+        <v>0.4960139026296478</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4747524137630668</v>
+        <v>0.4727072259430558</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.5189883651246554</v>
+        <v>0.5181187383253684</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1757</v>
@@ -2286,19 +2286,19 @@
         <v>1699845</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1640756</v>
+        <v>1638689</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1764232</v>
+        <v>1760292</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.5002274966805818</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4828389636775736</v>
+        <v>0.4822304491713094</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5191752710238177</v>
+        <v>0.5180158556717965</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>444351</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>408000</v>
+        <v>404012</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>490366</v>
+        <v>486295</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2334693792701823</v>
+        <v>0.2334693792701822</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2143699104436566</v>
+        <v>0.212274752979895</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.257646428043152</v>
+        <v>0.2555072478251056</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>513</v>
@@ -2336,19 +2336,19 @@
         <v>349299</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>321994</v>
+        <v>322302</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>378411</v>
+        <v>376176</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2336616315958389</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2153964779122232</v>
+        <v>0.2156022854396752</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2531361862386675</v>
+        <v>0.2516407432637669</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>925</v>
@@ -2357,19 +2357,19 @@
         <v>793650</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>743300</v>
+        <v>745021</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>842296</v>
+        <v>843959</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2335539538273451</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2187371719183195</v>
+        <v>0.219243403832942</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2478694309853373</v>
+        <v>0.2483587176489223</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>163774</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>136267</v>
+        <v>137850</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>191523</v>
+        <v>193240</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.08604949908386908</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07159710883983816</v>
+        <v>0.07242856177494741</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1006292451030584</v>
+        <v>0.1015316071920913</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>172</v>
@@ -2407,19 +2407,19 @@
         <v>125013</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>107475</v>
+        <v>108213</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>144572</v>
+        <v>145735</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08362696296811434</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07189489329571186</v>
+        <v>0.07238872330900192</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09671086394151429</v>
+        <v>0.09748863042615928</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>311</v>
@@ -2428,19 +2428,19 @@
         <v>288787</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>258243</v>
+        <v>257330</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>327377</v>
+        <v>327151</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.0849837906795555</v>
+        <v>0.08498379067955548</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07599532582528828</v>
+        <v>0.0757265876194527</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09633988755470388</v>
+        <v>0.09627341764737009</v>
       </c>
     </row>
     <row r="28">
@@ -2457,19 +2457,19 @@
         <v>178045</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>151144</v>
+        <v>153188</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>207710</v>
+        <v>208184</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09354759565641965</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07941347129626658</v>
+        <v>0.08048766293193862</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1091341004345597</v>
+        <v>0.1093834859460129</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>181</v>
@@ -2478,19 +2478,19 @@
         <v>135273</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>118436</v>
+        <v>117304</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>156666</v>
+        <v>157706</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.09049008268389017</v>
+        <v>0.09049008268389012</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07922738860760084</v>
+        <v>0.07846975139256683</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1048008759643499</v>
+        <v>0.1054967020039563</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>330</v>
@@ -2499,19 +2499,19 @@
         <v>313318</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>280470</v>
+        <v>282132</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>350790</v>
+        <v>350096</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09220255181994939</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08253630807094896</v>
+        <v>0.08302536604981568</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1032300247542572</v>
+        <v>0.103025747771607</v>
       </c>
     </row>
     <row r="29">
@@ -2528,19 +2528,19 @@
         <v>98896</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>78547</v>
+        <v>80281</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>124077</v>
+        <v>122607</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.0519615085356679</v>
+        <v>0.05196150853566791</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04126981104117482</v>
+        <v>0.04218101721834195</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06519198715487756</v>
+        <v>0.06441978460705647</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>128</v>
@@ -2549,19 +2549,19 @@
         <v>104332</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>86607</v>
+        <v>87407</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>125675</v>
+        <v>126662</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.06979254728662956</v>
+        <v>0.06979254728662955</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05793503970899624</v>
+        <v>0.0584705198446197</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0840695170338171</v>
+        <v>0.08472964474771635</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>215</v>
@@ -2570,19 +2570,19 @@
         <v>203228</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>176100</v>
+        <v>177811</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>232618</v>
+        <v>235102</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.05980563838411843</v>
+        <v>0.05980563838411844</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05182239152159628</v>
+        <v>0.05232590548033822</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06845437020745405</v>
+        <v>0.06918554550037585</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>59829</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>43243</v>
+        <v>46005</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>80603</v>
+        <v>81618</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0314349903483173</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02272046157001491</v>
+        <v>0.0241717468685702</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.042349894835369</v>
+        <v>0.04288351799911437</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>52</v>
@@ -2620,19 +2620,19 @@
         <v>39487</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>30490</v>
+        <v>29523</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>51431</v>
+        <v>51313</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.02641487283587925</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02039587180285199</v>
+        <v>0.01974893593870695</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03440440516206823</v>
+        <v>0.0343253382215233</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>102</v>
@@ -2641,19 +2641,19 @@
         <v>99316</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>81267</v>
+        <v>81855</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>122023</v>
+        <v>121772</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.02922656860844974</v>
+        <v>0.02922656860844975</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02391511500492976</v>
+        <v>0.02408827683008877</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03590880243567896</v>
+        <v>0.03583478573184771</v>
       </c>
     </row>
     <row r="31">
